--- a/biology/Zoologie/Amtosaurus/Amtosaurus.xlsx
+++ b/biology/Zoologie/Amtosaurus/Amtosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amtosaurus magnus
-Amtosaurus (« lézard d'Amtgai ») est un genre éteint de dinosaures ornithischiens  ayant vécu en Mongolie au cours du Crétacé supérieur Cénomanien et Turonien), il y a environ entre 100 et 90 Ma (millions d'années)[1]
+Amtosaurus (« lézard d'Amtgai ») est un genre éteint de dinosaures ornithischiens  ayant vécu en Mongolie au cours du Crétacé supérieur Cénomanien et Turonien), il y a environ entre 100 et 90 Ma (millions d'années)
 Une seule espèce est rattachée à ce genre, Amtosaurus magnus.
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La définition de l'espèce est basée sur un seul fragment de crâne.
-Ce reste crânien fut d'abord attribué à un ankylosauridé avant d'être attribué à un hadrosaure. Parish et Barrett déclarèrent le taxon nomen dubium en 2004[2]. Une deuxième espèce, Amtosaurus archibaldi, fut décrite en 2002 par Averianov avant d'être assignée à un nouveau genre monospécifique Bissektipelta archibaldi[2].
+Ce reste crânien fut d'abord attribué à un ankylosauridé avant d'être attribué à un hadrosaure. Parish et Barrett déclarèrent le taxon nomen dubium en 2004. Une deuxième espèce, Amtosaurus archibaldi, fut décrite en 2002 par Averianov avant d'être assignée à un nouveau genre monospécifique Bissektipelta archibaldi.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Amtosaurus Kurzanov &amp; Tumanova (d), 1978[3].
-Selon GBIF       (25 février 2024)[3] aucune espèce ne représenterait ce genre désormais.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Amtosaurus Kurzanov &amp; Tumanova (d), 1978.
+Selon GBIF       (25 février 2024) aucune espèce ne représenterait ce genre désormais.
 </t>
         </is>
       </c>
